--- a/July_absenty/July_2025_11_12_TRE_3_absenty.xlsx
+++ b/July_absenty/July_2025_11_12_TRE_3_absenty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>Office of DPO (Establishment), Gaya</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>FM</t>
+  </si>
+  <si>
+    <t>16 DAYS</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,666 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10">
+        <v>11</v>
+      </c>
+      <c r="L5" s="10">
+        <v>12</v>
+      </c>
+      <c r="M5" s="10">
+        <v>13</v>
+      </c>
+      <c r="N5" s="10">
+        <v>14</v>
+      </c>
+      <c r="O5" s="10">
+        <v>15</v>
+      </c>
+      <c r="P5" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>17</v>
+      </c>
+      <c r="R5" s="10">
+        <v>18</v>
+      </c>
+      <c r="S5" s="10">
+        <v>19</v>
+      </c>
+      <c r="T5" s="10">
+        <v>20</v>
+      </c>
+      <c r="U5" s="10">
+        <v>21</v>
+      </c>
+      <c r="V5" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15">
+        <v>32157</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45792</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="19">
+        <v>110233699625</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="13">
+        <v>17067</v>
+      </c>
+      <c r="K6" s="13">
+        <f>J6*55%</f>
+        <v>9386.85</v>
+      </c>
+      <c r="L6" s="13">
+        <f>J6*5%</f>
+        <v>853.35</v>
+      </c>
+      <c r="M6" s="13">
+        <v>533</v>
+      </c>
+      <c r="N6" s="18">
+        <f>SUM(J6:M6)</f>
+        <v>27840.199999999997</v>
+      </c>
+      <c r="O6" s="13">
+        <f>ROUND((J6+K6)*10%,0)</f>
+        <v>2645</v>
+      </c>
+      <c r="P6" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13">
+        <f>SUM(O6:R6)</f>
+        <v>2675</v>
+      </c>
+      <c r="T6" s="18">
+        <f>(N6/30)*30-S6</f>
+        <v>25165.199999999997</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="15">
+        <v>33636</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45792</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="19">
+        <v>110262006113</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="13">
+        <v>17067</v>
+      </c>
+      <c r="K7" s="13">
+        <f>J7*55%</f>
+        <v>9386.85</v>
+      </c>
+      <c r="L7" s="13">
+        <f>J7*5%</f>
+        <v>853.35</v>
+      </c>
+      <c r="M7" s="13">
+        <v>533</v>
+      </c>
+      <c r="N7" s="18">
+        <f>SUM(J7:M7)</f>
+        <v>27840.199999999997</v>
+      </c>
+      <c r="O7" s="13">
+        <f>ROUND((J7+K7)*10%,0)</f>
+        <v>2645</v>
+      </c>
+      <c r="P7" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13">
+        <f>SUM(O7:R7)</f>
+        <v>2675</v>
+      </c>
+      <c r="T7" s="18">
+        <f>(N7/30)*30-S7</f>
+        <v>25165.199999999997</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V2"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1696,9 @@
         <v>45792</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="19">
+        <v>110233699625</v>
+      </c>
       <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
@@ -1073,8 +1737,8 @@
         <v>4990</v>
       </c>
       <c r="T6" s="18">
-        <f>(N6/30)*16-S6</f>
-        <v>22850</v>
+        <f>(N6/31)*31-S6</f>
+        <v>47210</v>
       </c>
       <c r="U6" s="13" t="s">
         <v>35</v>
@@ -1426,12 +2090,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +2204,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="8" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +2357,9 @@
         <v>45792</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="19">
+        <v>110233699625</v>
+      </c>
       <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
@@ -2083,663 +2749,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" s="8" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10">
-        <v>8</v>
-      </c>
-      <c r="I5" s="10">
-        <v>9</v>
-      </c>
-      <c r="J5" s="10">
-        <v>10</v>
-      </c>
-      <c r="K5" s="10">
-        <v>11</v>
-      </c>
-      <c r="L5" s="10">
-        <v>12</v>
-      </c>
-      <c r="M5" s="10">
-        <v>13</v>
-      </c>
-      <c r="N5" s="10">
-        <v>14</v>
-      </c>
-      <c r="O5" s="10">
-        <v>15</v>
-      </c>
-      <c r="P5" s="10">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>17</v>
-      </c>
-      <c r="R5" s="10">
-        <v>18</v>
-      </c>
-      <c r="S5" s="10">
-        <v>19</v>
-      </c>
-      <c r="T5" s="10">
-        <v>20</v>
-      </c>
-      <c r="U5" s="10">
-        <v>21</v>
-      </c>
-      <c r="V5" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="15">
-        <v>32157</v>
-      </c>
-      <c r="E6" s="15">
-        <v>45792</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13">
-        <v>32000</v>
-      </c>
-      <c r="K6" s="13">
-        <f>J6*55%</f>
-        <v>17600</v>
-      </c>
-      <c r="L6" s="13">
-        <f>J6*5%</f>
-        <v>1600</v>
-      </c>
-      <c r="M6" s="13">
-        <v>1000</v>
-      </c>
-      <c r="N6" s="18">
-        <f>SUM(J6:M6)</f>
-        <v>52200</v>
-      </c>
-      <c r="O6" s="13">
-        <f>(J6+K6)*10%</f>
-        <v>4960</v>
-      </c>
-      <c r="P6" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13">
-        <f>SUM(O6:R6)</f>
-        <v>4990</v>
-      </c>
-      <c r="T6" s="18">
-        <f>(N6/31)*31-S6</f>
-        <v>47210</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="15">
-        <v>33636</v>
-      </c>
-      <c r="E7" s="15">
-        <v>45792</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="19">
-        <v>110262006113</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="13">
-        <v>32000</v>
-      </c>
-      <c r="K7" s="13">
-        <f>J7*55%</f>
-        <v>17600</v>
-      </c>
-      <c r="L7" s="13">
-        <f>J7*5%</f>
-        <v>1600</v>
-      </c>
-      <c r="M7" s="13">
-        <v>1000</v>
-      </c>
-      <c r="N7" s="18">
-        <f>SUM(J7:M7)</f>
-        <v>52200</v>
-      </c>
-      <c r="O7" s="13">
-        <f>(J7+K7)*10%</f>
-        <v>4960</v>
-      </c>
-      <c r="P7" s="13">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13">
-        <f>SUM(O7:R7)</f>
-        <v>4990</v>
-      </c>
-      <c r="T7" s="18">
-        <f>(N7/31)*31-S7</f>
-        <v>47210</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:V2"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>